--- a/doc/Scrum_TeamYellow.xlsx
+++ b/doc/Scrum_TeamYellow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba580df2d78ec2d1/BFH Share/Team/Team Gelb SOED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\BFH Share\Team\Team Gelb SOED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="6_{4F06CF56-BAF5-4DF9-A197-82E132FA6114}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{BBC4D084-3C33-4447-A0F1-9EE8A8BB44F4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_8627679B25B590CE2C7BA4BB08D96B7C52121073" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D98DFA00-26D5-422F-BE43-59F1C1D33F94}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <sheet name="Sprint Backlog 3" sheetId="6" r:id="rId5"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179016" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint Backlog 3'!$A$1:$L$15</definedName>
+  </definedNames>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -435,18 +438,12 @@
     <t>Medikation durchsuchen</t>
   </si>
   <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>Test Cases</t>
   </si>
   <si>
     <t>Implementieren der Krankheitserfassungsfunktion</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Krankheitsverlauf soll durchsucht werden können</t>
   </si>
   <si>
@@ -459,25 +456,37 @@
     <t>Präsentation vorbereiten</t>
   </si>
   <si>
-    <t>Observer Pattern implementieren</t>
-  </si>
-  <si>
     <t>Z.B. Unit Test</t>
   </si>
   <si>
     <t>Demo und Video erstellen</t>
   </si>
   <si>
-    <t>Responsiv</t>
-  </si>
-  <si>
-    <t>Alle Seiten responsiv machen</t>
-  </si>
-  <si>
     <t>Code Review</t>
   </si>
   <si>
-    <t>Durchschauen und verbessern vom Code</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Validierung von Formular-Inserts</t>
+  </si>
+  <si>
+    <t>Philipp Köfer</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -859,7 +868,7 @@
             <c:numRef>
               <c:f>BurndownChart!$B$2:$B$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42262</c:v>
@@ -934,7 +943,7 @@
             <c:numRef>
               <c:f>BurndownChart!$B$2:$B$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>42262</c:v>
@@ -987,7 +996,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2078,18 +2087,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.5625" customWidth="1"/>
-    <col min="3" max="3" width="14.66015625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2121,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2190,7 +2199,7 @@
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -2209,24 +2218,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.078125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="63.62890625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.01171875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.8359375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="21.92578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.0859375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14.390625" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="9.01171875" style="20"/>
+    <col min="1" max="1" width="3.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24" style="20" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="22" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>49</v>
       </c>
@@ -2477,27 +2486,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.0859375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.01171875" customWidth="1"/>
-    <col min="3" max="3" width="20.984375" customWidth="1"/>
-    <col min="4" max="4" width="58.91796875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.75390625" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
-    <col min="8" max="8" width="8.0703125" customWidth="1"/>
-    <col min="9" max="9" width="9.953125" customWidth="1"/>
-    <col min="10" max="10" width="9.14453125" customWidth="1"/>
-    <col min="11" max="11" width="7.12890625" customWidth="1"/>
-    <col min="12" max="12" width="15.06640625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1.1000000000000001</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1.2</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>87</v>
       </c>
@@ -2645,7 +2654,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>88</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>89</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>90</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>91</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>92</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2.1</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>2.2000000000000002</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>2.2999999999999998</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>96</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>94</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>95</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>1</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="19"/>
       <c r="C17" s="17" t="s">
@@ -3075,7 +3084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J18" s="20"/>
     </row>
   </sheetData>
@@ -3084,30 +3093,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE7E2A5-63FE-4A7C-A3EC-FA99AD436FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" xr3:uid="{085D0D6D-0FB1-5FDE-93AD-7F204C66B4FB}">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.0859375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.01171875" customWidth="1"/>
-    <col min="3" max="3" width="20.984375" customWidth="1"/>
-    <col min="4" max="4" width="58.91796875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.75390625" customWidth="1"/>
-    <col min="7" max="7" width="19.7734375" customWidth="1"/>
-    <col min="8" max="8" width="8.0703125" customWidth="1"/>
-    <col min="9" max="9" width="9.953125" customWidth="1"/>
-    <col min="10" max="10" width="9.14453125" customWidth="1"/>
-    <col min="11" max="11" width="7.12890625" customWidth="1"/>
-    <col min="12" max="12" width="15.06640625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2.1</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2.2999999999999998</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>96</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>94</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>120</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>95</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>95</v>
       </c>
@@ -3385,7 +3394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>116</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>117</v>
       </c>
@@ -3455,7 +3464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>118</v>
       </c>
@@ -3488,7 +3497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>119</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="20">
         <v>2</v>
@@ -3556,7 +3565,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="20">
         <v>2</v>
@@ -3590,7 +3599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3604,7 +3613,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3618,7 +3627,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>1</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="19"/>
       <c r="C18" s="17" t="s">
@@ -3650,7 +3659,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J19" s="20"/>
     </row>
   </sheetData>
@@ -3659,29 +3668,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA35732-F6AB-4FBC-85DA-8777393259CB}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" xr3:uid="{2A190D8A-3D86-5650-BF3D-ACE4EC7FA130}">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.0859375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" customWidth="1"/>
-    <col min="4" max="4" width="58.91796875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.75390625" customWidth="1"/>
-    <col min="7" max="7" width="19.7734375" customWidth="1"/>
-    <col min="8" max="8" width="8.0703125" customWidth="1"/>
-    <col min="9" max="9" width="9.953125" customWidth="1"/>
-    <col min="10" max="10" width="9.14453125" customWidth="1"/>
-    <col min="11" max="11" width="7.12890625" customWidth="1"/>
-    <col min="12" max="12" width="15.06640625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -3719,72 +3728,94 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B2" s="20">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="20">
+        <v>4</v>
+      </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
-        <v>2.2999999999999998</v>
+      <c r="K2" s="20">
+        <v>4</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="B3" s="20">
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="20"/>
+        <v>107</v>
+      </c>
       <c r="F3" s="20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="20">
         <v>4</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="20">
+        <v>4</v>
+      </c>
       <c r="K3" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="20">
         <v>3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>33</v>
@@ -3799,219 +3830,233 @@
         <v>2</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B5" s="20">
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I5" s="20">
         <v>4</v>
       </c>
       <c r="J5" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="B6" s="20">
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" s="20">
-        <v>4</v>
-      </c>
-      <c r="J6" s="20">
         <v>8</v>
       </c>
+      <c r="J6" s="20"/>
       <c r="K6" s="20">
         <v>8</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="B7" s="20">
         <v>3</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="20">
+        <v>4</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>8</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
       <c r="L7" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>146</v>
+      </c>
       <c r="B8" s="20">
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>6</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>10</v>
+      </c>
       <c r="L8" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="B9" s="20">
         <v>3</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I9" s="20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>3</v>
+      </c>
       <c r="L9" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="20">
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I10" s="20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
       <c r="L10" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="20">
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I11" s="20">
         <v>8</v>
@@ -4019,130 +4064,84 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="20">
         <v>3</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="20">
+        <v>4</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20">
+        <v>6</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="20">
         <v>3</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="20">
-        <v>8</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20">
-        <v>3</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="20">
-        <v>8</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="20">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="20">
-        <v>4</v>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17">
+        <f>SUM(I2:I13)</f>
+        <v>61</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f ca="1">SUM(K2:K19)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
-      <c r="B15" s="20">
-        <v>3</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="20">
-        <v>4</v>
-      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -4156,7 +4155,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4170,7 +4169,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -4184,7 +4183,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4198,102 +4197,38 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="17">
-        <f>SUM(I2:I23)</f>
-        <v>73</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24">
-        <f>SUM(K2:K22)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J25" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.0859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -4307,7 +4242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4321,7 +4256,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
